--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="0" windowWidth="15300" windowHeight="7660"/>
@@ -343,7 +343,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -354,7 +354,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -382,7 +382,7 @@
         <v>-2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2">
         <v>0.1</v>
@@ -396,7 +396,7 @@
         <v>-1.5</v>
       </c>
       <c r="B3">
-        <v>-9.9999999999999978E-2</v>
+        <v>-1.4</v>
       </c>
       <c r="C3">
         <v>0.2</v>
@@ -410,7 +410,7 @@
         <v>-1</v>
       </c>
       <c r="B4">
-        <v>-0.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="C4">
         <v>0.3</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>-0.3</v>
+        <v>-0.01</v>
       </c>
       <c r="C5">
         <v>0.4</v>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -452,7 +452,7 @@
         <v>1.5</v>
       </c>
       <c r="B7">
-        <v>-9.9999999999999978E-2</v>
+        <v>1.4</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C8">
         <v>0.7</v>
